--- a/src/utils/excel/i18n.xlsx
+++ b/src/utils/excel/i18n.xlsx
@@ -39,7 +39,7 @@
     <t>appname</t>
   </si>
   <si>
-    <t>Hitmands Angular Starter Kit</t>
+    <t>Angular Dishes</t>
   </si>
 </sst>
 </file>
